--- a/Adriatic/Adriatic_v8.xlsx
+++ b/Adriatic/Adriatic_v8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27075" windowHeight="10710" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27075" windowHeight="10710" firstSheet="13" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -18409,8 +18409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E442"/>
   <sheetViews>
-    <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="E448" sqref="E448"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37238,7 +37238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -44267,7 +44267,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44318,7 +44318,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -44350,7 +44350,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -44382,7 +44382,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>5</v>
